--- a/DATA_goal/Junction_Flooding_290.xlsx
+++ b/DATA_goal/Junction_Flooding_290.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41722.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.77</v>
+        <v>2.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.92</v>
+        <v>4.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.64</v>
+        <v>3.96</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.38</v>
+        <v>5.94</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.98</v>
+        <v>1.9</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.9</v>
+        <v>1.99</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.07</v>
+        <v>2.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>263.91</v>
+        <v>26.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.62</v>
+        <v>4.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.94</v>
+        <v>3.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.54</v>
+        <v>2.95</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.65</v>
+        <v>1.96</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.44</v>
+        <v>5.24</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41722.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41722.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.05</v>
+        <v>2.91</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.04</v>
+        <v>2.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.8</v>
+        <v>3.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>154.01</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>10.57</v>
-      </c>
       <c r="Y4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.67</v>
+        <v>3.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41722.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>49.43</v>
+        <v>4.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.89</v>
+        <v>4.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>67.89</v>
+        <v>6.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.93</v>
+        <v>1.99</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.46</v>
+        <v>2.55</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>265.08</v>
+        <v>26.51</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.02</v>
+        <v>5</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.63</v>
+        <v>3.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.85</v>
+        <v>1.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.3</v>
+        <v>3.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.5</v>
+        <v>6.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41722.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>37.4</v>
+        <v>3.74</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41722.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>31.98</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>51.22</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
       <c r="K7" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>205.54</v>
+        <v>20.55</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.99</v>
+        <v>3.9</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.23</v>
+        <v>2.62</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.19</v>
+        <v>2.52</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>46.09</v>
+        <v>4.61</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41722.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AH8" s="4" t="n">
         <v>0.17</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.66</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41722.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.31</v>
+        <v>2.93</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.83</v>
+        <v>3.78</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>154.02</v>
+        <v>15.4</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>29.48</v>
+        <v>2.95</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>33.86</v>
+        <v>3.39</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41722.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>27.03</v>
+        <v>2.7</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>22.35</v>
+        <v>2.23</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>38.43</v>
+        <v>3.84</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>141.46</v>
+        <v>14.15</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>27.36</v>
+        <v>2.74</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>34.89</v>
+        <v>3.49</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_290.xlsx
+++ b/DATA_goal/Junction_Flooding_290.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44971.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44971.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.59</v>
+        <v>45.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.68</v>
+        <v>36.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.14</v>
+        <v>61.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.34</v>
+        <v>23.36</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.42</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>24.45</v>
+        <v>244.47</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.62</v>
+        <v>46.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.08</v>
+        <v>30.76</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.07</v>
+        <v>30.69</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.62</v>
+        <v>56.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44971.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.55</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.12</v>
+        <v>51.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.09</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.73</v>
+        <v>187.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.58</v>
+        <v>35.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.67</v>
+        <v>46.73</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44971.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.18</v>
+        <v>41.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.39</v>
+        <v>33.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.86</v>
+        <v>58.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.16</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.21</v>
+        <v>42.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.85</v>
+        <v>28.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.33</v>
+        <v>53.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_290.xlsx
+++ b/DATA_goal/Junction_Flooding_290.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44971.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.98</v>
+        <v>20.984</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.32</v>
+        <v>15.325</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.91</v>
+        <v>1.914</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.93</v>
+        <v>45.925</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.79</v>
+        <v>36.795</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.39</v>
+        <v>16.391</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.42</v>
+        <v>61.418</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.14</v>
+        <v>11.143</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.35</v>
+        <v>16.346</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.36</v>
+        <v>18.363</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.59</v>
+        <v>19.586</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.313</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.36</v>
+        <v>23.356</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.22</v>
+        <v>14.217</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.419</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.149</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.47</v>
+        <v>244.474</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>46.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.76</v>
+        <v>30.756</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.06</v>
+        <v>16.061</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.76</v>
+        <v>2.759</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.69</v>
+        <v>30.694</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.09</v>
+        <v>12.094</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>14.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.22</v>
+        <v>19.221</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>56.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.464</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>19.09</v>
@@ -863,103 +863,103 @@
         <v>44971.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.21</v>
+        <v>16.209</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.93</v>
+        <v>11.934</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.298</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.52</v>
+        <v>35.516</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.55</v>
+        <v>28.552</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.68</v>
+        <v>12.676</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.16</v>
+        <v>51.158</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.66</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.69</v>
+        <v>12.687</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.22</v>
+        <v>14.221</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.18</v>
+        <v>15.176</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.11</v>
+        <v>4.107</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.09</v>
+        <v>18.091</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.96</v>
+        <v>10.964</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.25</v>
+        <v>187.253</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.79</v>
+        <v>35.794</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.85</v>
+        <v>23.855</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.47</v>
+        <v>12.468</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.066</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.77</v>
+        <v>24.768</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.33</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.98</v>
+        <v>10.976</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.9</v>
+        <v>14.901</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>46.73</v>
+        <v>46.733</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.551</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44971.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_290.xlsx
+++ b/DATA_goal/Junction_Flooding_290.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44971.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.11</v>
+        <v>19.112</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>14.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.188</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.8</v>
+        <v>41.798</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.94</v>
+        <v>33.937</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.98</v>
+        <v>14.982</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.58</v>
+        <v>58.578</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.16</v>
+        <v>15.162</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.76</v>
+        <v>16.755</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.84</v>
+        <v>17.836</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.36</v>
+        <v>21.361</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.75</v>
+        <v>12.751</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.58</v>
+        <v>221.585</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.06</v>
+        <v>42.056</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.19</v>
+        <v>28.192</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.77</v>
+        <v>14.772</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.267</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.52</v>
+        <v>28.516</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.82</v>
+        <v>12.822</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.58</v>
+        <v>17.583</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>53.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.78</v>
+        <v>7.777</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44971.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_290.xlsx
+++ b/DATA_goal/Junction_Flooding_290.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44971.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.112</v>
+        <v>19.11</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>14.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.188</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.798</v>
+        <v>41.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.937</v>
+        <v>33.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.982</v>
+        <v>14.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.578</v>
+        <v>58.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.269</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.162</v>
+        <v>15.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.755</v>
+        <v>16.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.836</v>
+        <v>17.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.831</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.038</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.361</v>
+        <v>21.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.751</v>
+        <v>12.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.799</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.585</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.056</v>
+        <v>42.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.881</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.192</v>
+        <v>28.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.772</v>
+        <v>14.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.267</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.516</v>
+        <v>28.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.261</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.822</v>
+        <v>12.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.583</v>
+        <v>17.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>53.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.777</v>
+        <v>7.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44971.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>
